--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\My Drive\Programming\MSc Software Development (Cloud - Google)\CSC7082 - Databases\CSC7082-DatabaseProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA57B18-D2B4-48D5-938A-27C8C40026C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-21600" yWindow="3660" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="hotels" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +24,582 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="170">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>Euro</t>
+  </si>
+  <si>
+    <t>Turkish Lira</t>
+  </si>
+  <si>
+    <t>€</t>
+  </si>
+  <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>₺</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>£</t>
+  </si>
+  <si>
+    <t>Turkish</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Spire-studded skylines, crop-covered countryside, sugar-scented boulangeries… say ‘bonjour’ to a petit place named France. Famed for its food, its fashion, its arts – there’s nothing this super chic spot hasn’t mastered. And when it comes to its resorts, well, they’re second to none. Take your pick between teal-coloured coastlines and unmissable cities, each one as magical as the last… </t>
+  </si>
+  <si>
+    <r>
+      <t>Holidays to Turkey (Türkiye)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are all about lazing on gold-sand beaches, tucking into chargrilled kebabs, sipping cocktails at swish marinas... and much more. Yes, there are many sides to this beautiful country, as it’s the ultimate bridge between the east and west. That means you can flip between seeing ancient wonders, experiencing mesmerising coastline and exploring chic shopping malls all in one holiday to Turkey (Türkiye).</t>
+    </r>
+  </si>
+  <si>
+    <t>Great British Pounds</t>
+  </si>
+  <si>
+    <t>Town City</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Resort</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Costa Blanca</t>
+  </si>
+  <si>
+    <t>Costa Del Sol</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>Benidorm</t>
+  </si>
+  <si>
+    <t>Benidorm is the resort of all resorts on Costa Blanca’s sun-kissed coast. Pull up a sunlounger in this popular plot and do what Benidorm does best – take life as it comes. With incredible value around the likes of English Square, the bright lights of Benidorm Palace and some of the most sun-soaked beaches in Spain (hello, Levante), it’s not surprising that people of all ages just can’t stop coming back to Benidorm…</t>
+  </si>
+  <si>
+    <t>Calpe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This former fishing village is a hit with holidaymakers who like a dose of history with their beach-based relaxation. It’s got soft sands, tall buildings that light up the skyline at night, and some magical cliffside scenery to boot. Plus, it's a popular plot to explore on two wheels! </t>
+  </si>
+  <si>
+    <t>Benalmadena</t>
+  </si>
+  <si>
+    <t>Benalmadena is a tale of three parts – the hilltop Old Town, the bustling downtown and a choice of glittering beaches. With cities and resorts nearby, it’s a palm-lined platform for exploration beyond the landscaped gardens, marvellous monuments and international eateries filling this bustling area.</t>
+  </si>
+  <si>
+    <t>Antalya</t>
+  </si>
+  <si>
+    <t>Dalaman</t>
+  </si>
+  <si>
+    <t>A stunning natural landscape and amazing ancient ruins provide a backdrop to stylish resorts bursting with sun-kissed beaches and great-value, luxury hotels. Combining age-old traditions with modern attractions, Antalya’s captivating coastline blends the best of both worlds for the perfect slice of Turkey. And the beaches here are some of the finest in the country, so get ready to sprawl out on the sand with a side of sensational views to boot. As for the resorts, Lara Beach shows off Cancun-style entertainment, Side is top for history and Belek is all about the golf. It’s the perfect playground for pleasure seekers and culture vultures alike. </t>
+  </si>
+  <si>
+    <t>Lara Beach</t>
+  </si>
+  <si>
+    <t>Belek</t>
+  </si>
+  <si>
+    <t>With its extravagant, glitzy five-star hotels, it’s no wonder many people see Lara Beach as Turkey’s answer to Las Vegas. Lush pools, restaurants, waterparks and even sensational spas all add to the glamour of this resort. But if you fancy some authentic experiences, grab a bus to Antalya to explore.</t>
+  </si>
+  <si>
+    <t>Stylish Belek is famous for golf, beaches and beautiful landscapes. Here, you’ll also get a glimpse into Turkey’s rich history. So, whether you plan to top up your tan, work on your swing, or explore ancient Greek towns, Antalya’s popular resort won’t disappoint. Check out our fantastic holidays to Belek.</t>
+  </si>
+  <si>
+    <t>With larger-than-life Benidorm taking centre stage, this iconic Costa is a playground for pleasure-seekers of all ages, all year round. Blue Flag beaches, boat trips, wineries, great golf courses, tonnes of pubs – it’s all here. And you can’t beat a bit of sequin-splashed cabaret or tapas in the Old Town. That’s why it’s such a winner for stag and hen parties. Further up the coast, authentic Spanish scenes await in Calpe and Albir. Plus, there are the lantern-lit bars and art galleries of Alicante to discover, while the nearby mountains hide natural wonders, year-round cycle routes and secret villages. Whether you’re a first-timer or have been holidaying here for years, you’ll find this old-school favourite hasn’t lost its charm.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Costa del Sol’s been a Brit hit for years – and rightly so. The favourites of Torremolinos and Benalmadena promise traditional fun and then some. That’s thanks to their miles of sun-drenched sands, oodles of exciting attractions and heaps of British restaurants and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chiringuitos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> serving barbecued feasts. Over in modern Marbella and Puerto Banus, things get much glitzier. High-end, renovated hotels, sleek marinas and celeb-soaked bars make for the perfect party scene. Estepona is great if you’re into golf, while whitewashed Nerja slows the pace with buckets of old-school charm. Over winter, the sun’s still going strong and the good times keep rolling.</t>
+    </r>
+  </si>
+  <si>
+    <t>Delve into Dalaman to discover a place where pine-clad mountains meet sparkling seascapes and there’s a typically Turkish feel wherever you go. Make the oh-so-dreamy Blue Lagoon in Olu Deniz top of your list and keep your eyes peeled for turtles at Iztuzu Beach. Head to Marmaris and you’re guaranteed fun. By day, try your hand at haggling in the Grand Bazaar and by night, enjoy the buzz of Bar Street. Meanwhile, Icmeler is a picturesque plot with a family-flavoured feel. And don’t miss the  tombs and mud baths of Dalyan. Whether you want to relax, party or explore, Dalaman has every type of holiday covered. </t>
+  </si>
+  <si>
+    <t>Turunc</t>
+  </si>
+  <si>
+    <t>Hiking up the Taurus Mountains offer incredible views of Turunç, so get your comfy shoes on and grab your camera – you’re going on an adventure. If you’d rather a bit of pure peace and quiet, there’s a brilliant beach, tranquil tea garden, and even enticing gift shops to browse.</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">With sunny climates, idyllic islands and culture aplenty, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>holidays to Greece</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> offer guaranteed good times. From the secluded beaches of Lefkas, to the historic hub of the Peloponnese, the seafront resorts of Crete to the buzzing nightlife of Zante, Greece holidays will never disappoint. Check out some of the most picturesque destinations the country has to offer.</t>
+    </r>
+  </si>
+  <si>
+    <t>Greek</t>
+  </si>
+  <si>
+    <t>Kos</t>
+  </si>
+  <si>
+    <t>Zante</t>
+  </si>
+  <si>
+    <t>Part of the showstopping Dodecanese Islands, Kos has long been a favourite for sunshine holidays. Here you have the choice of lively party towns, laid-back seaside resorts and traditional fishing villages – all of them boasting beautiful beaches and dishing up heavenly traditional cuisine. Like history? It's got heaps of it. This is an island where centuries-old relics neighbour vibrant bars and buzzy promenades. </t>
+  </si>
+  <si>
+    <t>Just off the south-west tip of mainland Greece, Zante is a glimmering Ionian jewel, where families come to relax, clubbers come to dance and sea turtles come to nest. Coves of curving azure water and sun-speckled sand are where you'll want to spend all your days. After a resort with a lively vibe? Laganas is a neon-lit playground for party goers, while Tsilivi serves up classic fun in the sun. And it’s over to Zante Town for chic boutiques and harbourside wining and dining. Hidden caves, shipwrecks, chalky white cliffs – they all add to the desert-island appeal of this Greek good looker too.</t>
+  </si>
+  <si>
+    <t>Kalamaki</t>
+  </si>
+  <si>
+    <t>A popular choice for families, Kalamaki boasts everything from quiet to fun-filled nights, topped off with all the usual trappings of a bustling seaside resort. We’re talking souvenir shops, crazy golf – the works! And where the sandy beach meets the Bay of Laganas, you’ll want to keep your peepers peeled for the famous Caretta Caretta turtles.</t>
+  </si>
+  <si>
+    <t>Kardamena</t>
+  </si>
+  <si>
+    <t>Agios Fokas</t>
+  </si>
+  <si>
+    <t>Kardamena is a great place if you're looking for nightlife – and it caters for all ages and tastes too. Nights out are centred on the square and its small variety of bars. The resort also offers peace and quiet at a medieval castle and a wide band of soft sand to kick back on along this south-east coast. Hop on a mini-hovercraft or pedalo, but don’t miss sniffing out a bargain in the souvenir shops.</t>
+  </si>
+  <si>
+    <t>The minute you clap eyes on Agios Fokas, you’ll be immersed in a kaleidoscope of dreamy blues and greens. It’s a classic Greek resort, with a super-slow pace to it. If you’re eager to sit back and relax, simply pitch up on the pebbly beach or in a traditional taverna. </t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>additional info</t>
+  </si>
+  <si>
+    <t>lifts</t>
+  </si>
+  <si>
+    <t>floors</t>
+  </si>
+  <si>
+    <t>resort</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>star rating</t>
+  </si>
+  <si>
+    <t>Hotel Sol Pelicanos Ocas</t>
+  </si>
+  <si>
+    <t>Hotel Sol Pelicanos Ocas has a real claim to fame – it’s the hotel setting for ITV’s hit sitcom, Benidorm. And you’ll certainly find this bolthole has star quality too. It boasts a range of five outdoor pools, including one that’s lagoon-style and lined with palms. There are also two buffet restaurants to choose from and a focus on daily and evening entertainment, with five fab bars thrown into the mix. Family holidays are great here too, thanks to children’s buffets, kids’ clubs for different ages and a playground. Plus, it’s just 300m to the golden sands of Levante Beach.</t>
+  </si>
+  <si>
+    <t>Please note: on arrival, guests will be allocated in either the Ocas or Pelicanos block and must dine in the restaurant allocated to their block. All other facilities and activities are shared between both hotels. Mobility scooters are not permitted inside the hotel. Group bookings with more than 10 rooms/21 passengers are on request. Please contact our call centre and choose the relevant option for your group size to check availability, otherwise your booking will be rejected by the hotel. Stag and hen parties and other celebration groups are not permitted. For adult groups of 3 passengers or more, a refundable deposit of €50 per person is required on arrival. Guests can check in to the hotel from 16:00 pm onward.</t>
+  </si>
+  <si>
+    <t>facilities</t>
+  </si>
+  <si>
+    <t>https://www.jet2holidays.com/spain/costa-blanca/benidorm/hotel-sol-pelicanos-ocas#tab-facilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suitopia Sol Y Mar Suites </t>
+  </si>
+  <si>
+    <t>Set in the charming resort of Calpe, Suitopia Sol Y Mar Suites are an excellent choice for a fun filled family holiday! Offering luxurious accommodation, a great pool scene and top notch facilities, giving you plenty of options if you like to be kept busy, or equally if you like rest and relaxation! There is even a fantastic Sky Lounge Bar on the roof, offering the most amazing 360 degree views of the Costa Blanca whilst watching the sunset.</t>
+  </si>
+  <si>
+    <t>Av. Europa, 2, Planta 29, 03710 Calpe, Alicante, Spain</t>
+  </si>
+  <si>
+    <t>https://www.jet2holidays.com/spain/costa-blanca/calpe/suitopia-sol-y-mar-suites#tab-facilities</t>
+  </si>
+  <si>
+    <t>Globales Los Patos Park</t>
+  </si>
+  <si>
+    <t>Globales Los Patos Park is a great place for fun-filled family holidays. There's a splash park on-site featuring slides and a pirate ship with its very own water cannon, which the kids will just love. There's no need for the big kids to worry about missing out on the fun as there's also an exciting aqua park. Plus, this hotel is close to the beach so you can choose between the beach or pool days at the drop of a hat. With a range of sports, activities, entertainment and a children's club everyone is taken care of. Plus with All Inclusive available there's no need to leave the hotel!</t>
+  </si>
+  <si>
+    <t>Please note: the lift does not service the 10th floor of this hotel.</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>C. Torrealmádena, 5, 29630 Benalmádena, Málaga, Spain</t>
+  </si>
+  <si>
+    <t>https://www.jet2holidays.com/spain/costa-del-sol/benalmadena/globales-los-patos-park#tab-facilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sueno Hotel Deluxe Belek </t>
+  </si>
+  <si>
+    <t>Sueno Hotel Deluxe Belek is a luxurious beachfront hotel which boasts a fantastic range of facilities, from an unbeatable pool scene perfect for all ages complete with an adults’ waterpark and a children’s castle-themed pool to an impressive dining selection with a Food Court filled with snack outlets and a range of à la carte restaurants offering a range of cuisines from around the world. If lounging by one of the numerous pools isn’t your thing, then you can play a round of golf or tennis, indulge in some pampering at the fabulous Spa centre or be amused at the indoor Entertainment Centre. This property really does have everything you need for a truly memorable holiday!</t>
+  </si>
+  <si>
+    <t>https://www.jet2holidays.com/turkey/antalya-area/belek/sueno-hotel-deluxe-belek#tab-facilities</t>
+  </si>
+  <si>
+    <t>Belek, Kadriye_5 sokak No:5/2, 07525 Serik/Antalya, Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agrelli Hotel Imperial </t>
+  </si>
+  <si>
+    <t>Looking for a simple but stylish spot in lively Kardamena? Agrelli Hotel Imperial is your best bet. You’ve got everything you need right on your doorstep, including traditional tavernas, buzzing bars and the long, golden stretch of Kardamena Beach. The rooms provide plenty of space and there are various sizes to suit larger groups. There are two bars on-site where you can grab refreshing drinks and light snacks, and even catch live sports. The pool is the ideal place to relax and soak up the sunshine. If you fancy venturing out, the resort centre is just minutes away with its cocktail bars and tavernas!</t>
+  </si>
+  <si>
+    <t>https://www.jet2holidays.com/greece/kos/kardamena/agrelli-hotel-imperial#tab-facilities</t>
+  </si>
+  <si>
+    <t>passengers</t>
+  </si>
+  <si>
+    <t>Main Street, Kardamena 853 01, Greece</t>
+  </si>
+  <si>
+    <t>Please note: this property may not be suitable for guests with walking difficulties.</t>
+  </si>
+  <si>
+    <t>insert into passenger (passenger_first_name, last_name, passenger_date_of_birth, passenger_title_id, passenger_passport_id) values ('Farica', 'Baudone', '1961-07-05', 4, 9); insert into passenger (passenger_first_name, last_name, passenger_date_of_birth, passenger_title_id, passenger_passport_id) values ('Amery', 'Bibey', '1970-10-31', 4, 4); insert into passenger (passenger_first_name, last_name, passenger_date_of_birth, passenger_title_id, passenger_passport_id) values ('Romonda', 'Shovel', '1988-03-12', 4, 4); insert into passenger (passenger_first_name, last_name, passenger_date_of_birth, passenger_title_id, passenger_passport_id) values ('Caitlin', 'Barth', '1970-07-20', 3, 8); insert into passenger (passenger_first_name, last_name, passenger_date_of_birth, passenger_title_id, passenger_passport_id) values ('Putnam', 'Zannutti', '2001-03-13', 3, 5); insert into passenger (passenger_first_name, last_name, passenger_date_of_birth, passenger_title_id, passenger_passport_id) values ('Gwendolen', 'Currey', '2016-03-28', 3, 8); insert into passenger (passenger_first_name, last_name, passenger_date_of_birth, passenger_title_id, passenger_passport_id) values ('Lindon', 'Hearne', '1969-04-16', 1, 10); insert into passenger (passenger_first_name, last_name, passenger_date_of_birth, passenger_title_id, passenger_passport_id) values ('Mala', 'Eliaz', '1961-11-03', 5, 9); insert into passenger (passenger_first_name, last_name, passenger_date_of_birth, passenger_title_id, passenger_passport_id) values ('Cynthy', 'Febry', '1973-12-02', 5, 8); insert into passenger (passenger_first_name, last_name, passenger_date_of_birth, passenger_title_id, passenger_passport_id) values ('Saloma', 'Goschalk', '1985-05-19', 4, 4);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dimitra Beach Hotel &amp; Suites </t>
+  </si>
+  <si>
+    <t>In a remote beachfront setting on the South East coast of Kos, the Dimitra Beach Hotel &amp; Suites offers spectacular views of the Aegean Sea and refreshed interiors. Whitewashed buildings are scattered amongst the well-tendered gardens and accommodation is comfortable and elegant, with a choice of room types to suit all guests needs from couples to families. With never-ending sea views this property is perfect for a relaxing break.</t>
+  </si>
+  <si>
+    <t>Ag. Fokas 853 00, Greece</t>
+  </si>
+  <si>
+    <t>https://www.jet2holidays.com/greece/kos/agios-fokas/dimitra-beach-hotel-and-suites#tab-facilities</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>destination</t>
+  </si>
+  <si>
+    <t>Balearics</t>
+  </si>
+  <si>
+    <t>Canary Islands</t>
+  </si>
+  <si>
+    <t>Deserts, epic volcanoes and breathtaking mountains sit side-by-side on the spectacular Canary Islands. Year-round sun and average temps in the twenties make the quartet of Tenerife, Lanzarote, Gran Canaria and Fuerteventura a popular spot for classic beach breaks. Each one’s a firm favourite for different reasons – think wine tasting, surfing mighty waves, experiencing neon-lit nightlife and conquering incredible peaks.</t>
+  </si>
+  <si>
+    <t>Majorca, Ibiza, Menorca – they’re all legends in the holiday hotspot stakes. A giant waterpark and miles of sandy coast are just the tip of Majorca’s top attractions. Meanwhile, Ibiza serves up a mix of full-on clubbing and idyllic natural beauty. And Menorca’s all about peaceful, family-friendly holidays. Sun-kissed good times are ensured wherever you set foot.</t>
+  </si>
+  <si>
+    <t>Passenger</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>sname</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>passport</t>
+  </si>
+  <si>
+    <t>passport number</t>
+  </si>
+  <si>
+    <t>expiry date</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Wayne</t>
+  </si>
+  <si>
+    <t>NAB456789</t>
+  </si>
+  <si>
+    <t>Keanu</t>
+  </si>
+  <si>
+    <t>Reeves</t>
+  </si>
+  <si>
+    <t>BKR8945645</t>
+  </si>
+  <si>
+    <t>Miss</t>
+  </si>
+  <si>
+    <t>Churchill</t>
+  </si>
+  <si>
+    <t>Clare</t>
+  </si>
+  <si>
+    <t>QW899997785</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>Donna</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>A54841354</t>
+  </si>
+  <si>
+    <t>Britain</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>sterling</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Glasgow</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>4 a street, glasgow , scotland, britain</t>
+  </si>
+  <si>
+    <t>6 an avenue, London, england, britain</t>
+  </si>
+  <si>
+    <t>8 locationtown, Cardiff, Wales, britain</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>6 deutschy, Berlin, germany</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>time diff</t>
+  </si>
+  <si>
+    <t>+2</t>
+  </si>
+  <si>
+    <t>+2 summer/ +1 winter</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>Ibiza</t>
+  </si>
+  <si>
+    <t>Balerics</t>
+  </si>
+  <si>
+    <t>Tenerife</t>
+  </si>
+  <si>
+    <t>Blissful beaches meet shimmering sunsets on this beautiful boho island, where a contrast of superclubs and family-flavoured resorts sit side by side. The White Isle may be famed for its party scene, but there’s a sleepier side of traditional towns, secret coves and pine-coated hills to leave you feeling zen. And the resorts come in all shapes and sizes. Playa d’En Bossa has a playful spirit with its watersports and buzzy beach bars, while Playa Es Cana’s Hippy Market will stir your senses and Santa Eulalia’s the place to go gourmet. For heaps of history mixed with a slice of sophistication, it’s got to be oh-so cool Ibiza Town. </t>
+  </si>
+  <si>
+    <t>+1</t>
+  </si>
+  <si>
+    <t>airport</t>
+  </si>
+  <si>
+    <t>Belfast International Airport</t>
+  </si>
+  <si>
+    <t>Ibiza Mock Airport</t>
+  </si>
+  <si>
+    <t>Greece Mock Airport</t>
+  </si>
+  <si>
+    <t>Turkey Mock Airport</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>IMA</t>
+  </si>
+  <si>
+    <t>GMA</t>
+  </si>
+  <si>
+    <t>TMA</t>
+  </si>
+  <si>
+    <t>Tenerife Mock Airport</t>
+  </si>
+  <si>
+    <t>TEA</t>
+  </si>
+  <si>
+    <t>address id</t>
+  </si>
+  <si>
+    <t>Hotel 1</t>
+  </si>
+  <si>
+    <t>Hotel 2</t>
+  </si>
+  <si>
+    <t>Hotel 3</t>
+  </si>
+  <si>
+    <t>Hotel 4</t>
+  </si>
+  <si>
+    <t>Hotel 5</t>
+  </si>
+  <si>
+    <t>Hotel 6</t>
+  </si>
+  <si>
+    <t>1st jan 2023</t>
+  </si>
+  <si>
+    <t>Test Date Ranges to work within - for flights etc</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,19 +607,179 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -49,8 +788,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +1103,1054 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AH56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.28515625" customWidth="1"/>
+    <col min="24" max="24" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.85546875" customWidth="1"/>
+    <col min="30" max="30" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="W7" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="X7" s="33"/>
+    </row>
+    <row r="8" spans="1:27" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W8" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="X8" s="34"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="1"/>
+      <c r="G10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="28"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="19"/>
+      <c r="AH20" s="19"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="V21" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="W21" s="19"/>
+      <c r="X21" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z21" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB21" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC21" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD21" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE21" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF21" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG21" s="19"/>
+      <c r="AH21" s="19"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="J22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="V22" s="19">
+        <v>7</v>
+      </c>
+      <c r="W22" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="X22" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y22" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z22" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA22" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB22" s="13">
+        <v>7</v>
+      </c>
+      <c r="AC22" s="13">
+        <v>25</v>
+      </c>
+      <c r="AD22" s="13">
+        <v>3</v>
+      </c>
+      <c r="AE22" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF22" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="19"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="J23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V23" s="19">
+        <v>7</v>
+      </c>
+      <c r="W23" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="X23" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y23" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z23" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA23" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB23" s="13">
+        <v>6</v>
+      </c>
+      <c r="AC23" s="13">
+        <v>30</v>
+      </c>
+      <c r="AD23" s="13">
+        <v>4</v>
+      </c>
+      <c r="AE23" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF23" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="19"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="J24" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="V24" s="19">
+        <v>7</v>
+      </c>
+      <c r="W24" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="X24" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y24" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z24" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA24" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB24" s="13">
+        <v>3</v>
+      </c>
+      <c r="AC24" s="13">
+        <v>10</v>
+      </c>
+      <c r="AD24" s="13">
+        <v>4</v>
+      </c>
+      <c r="AE24" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF24" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="19"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="J25" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M25" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="V25" s="19">
+        <v>8</v>
+      </c>
+      <c r="W25" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="X25" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y25" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z25" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA25" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB25" s="13">
+        <v>10</v>
+      </c>
+      <c r="AC25" s="13">
+        <v>7</v>
+      </c>
+      <c r="AD25" s="13">
+        <v>5</v>
+      </c>
+      <c r="AE25" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF25" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG25" s="19"/>
+      <c r="AH25" s="19"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="J26" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="V26" s="19">
+        <v>12</v>
+      </c>
+      <c r="W26" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="X26" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y26" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z26" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA26" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB26" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="13">
+        <v>3</v>
+      </c>
+      <c r="AD26" s="13">
+        <v>3</v>
+      </c>
+      <c r="AE26" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF26" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="19"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="V27" s="19">
+        <v>12</v>
+      </c>
+      <c r="W27" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="X27" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y27" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z27" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA27" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB27" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="13">
+        <v>3</v>
+      </c>
+      <c r="AD27" s="13">
+        <v>5</v>
+      </c>
+      <c r="AE27" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG27" s="19"/>
+      <c r="AH27" s="19"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="L30" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="M30" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="L31" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="M31" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="L32" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="M32" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W36" s="25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G37" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="W37" s="32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G38" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="I38" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="J38" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="K38" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="O38" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="P38" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G39" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="I39" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J39" s="26">
+        <v>19511</v>
+      </c>
+      <c r="K39" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="O39" s="26">
+        <v>47757</v>
+      </c>
+      <c r="P39" s="19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="I40" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="J40" s="26">
+        <v>29041</v>
+      </c>
+      <c r="K40" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="O40" s="26">
+        <v>49658</v>
+      </c>
+      <c r="P40" s="19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="21"/>
+      <c r="G41" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="I41" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="J41" s="26">
+        <v>16442</v>
+      </c>
+      <c r="K41" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="O41" s="26">
+        <v>45079</v>
+      </c>
+      <c r="P41" s="19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="21"/>
+      <c r="G42" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="J42" s="26">
+        <v>33662</v>
+      </c>
+      <c r="K42" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="O42" s="26">
+        <v>45908</v>
+      </c>
+      <c r="P42" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="21"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" s="21"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="21"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="21"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B47" s="11"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\My Drive\Programming\MSc Software Development (Cloud - Google)\CSC7082 - Databases\CSC7082-DatabaseProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA57B18-D2B4-48D5-938A-27C8C40026C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81F9CC3-C3A4-4997-AC41-8282592C23E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="3660" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="585" yWindow="2685" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hotels" sheetId="1" r:id="rId1"/>
@@ -1107,7 +1107,7 @@
   <dimension ref="A1:AH56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
